--- a/opencv_point_algorithm/opencv_fitLine/private/data.xlsx
+++ b/opencv_point_algorithm/opencv_fitLine/private/data.xlsx
@@ -507,289 +507,289 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="95"/>
                 <c:pt idx="0">
-                  <c:v>0.52075510430285954</c:v>
+                  <c:v>0.51660451620719816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51679102418288858</c:v>
+                  <c:v>0.52871779562636212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54919619306426171</c:v>
+                  <c:v>0.53580702588146911</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53611294459209147</c:v>
+                  <c:v>0.55395317277594958</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56430939848811668</c:v>
+                  <c:v>0.55292258901769409</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56028223964105117</c:v>
+                  <c:v>0.55114513431975376</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56522263227210812</c:v>
+                  <c:v>0.57734391097348037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5665930541935934</c:v>
+                  <c:v>0.59449086811310603</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.59029606664660805</c:v>
+                  <c:v>0.57283640087604071</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.58099346163333976</c:v>
+                  <c:v>0.60758148806384571</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.59914216951323318</c:v>
+                  <c:v>0.61780966435574902</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.610605142854317</c:v>
+                  <c:v>0.62116082211407031</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.61065138828306731</c:v>
+                  <c:v>0.61995268435923934</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.61741538849156086</c:v>
+                  <c:v>0.6385054079324346</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.62714881052128679</c:v>
+                  <c:v>0.64071938153541486</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.64676730055124421</c:v>
+                  <c:v>0.64657938792767866</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.64814976721446649</c:v>
+                  <c:v>0.64277958671648505</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.67393852127500009</c:v>
+                  <c:v>0.67146595407755927</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.67790033933375804</c:v>
+                  <c:v>0.66480085689326485</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.67737531772483128</c:v>
+                  <c:v>0.68804229833471331</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.67053772544787538</c:v>
+                  <c:v>0.69852753385062527</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.68415145179293946</c:v>
+                  <c:v>0.69259088736762464</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.69112434526658284</c:v>
+                  <c:v>0.71467754482767831</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.69521867240137825</c:v>
+                  <c:v>0.70368668661950207</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.72549830963377537</c:v>
+                  <c:v>0.71753354508037581</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.73197212026614389</c:v>
+                  <c:v>0.72176869135423871</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.74225182241017984</c:v>
+                  <c:v>0.72674071031549703</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.74908473083955074</c:v>
+                  <c:v>0.73823987113404044</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.75084701543678323</c:v>
+                  <c:v>0.73269510801956539</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.74205745163762304</c:v>
+                  <c:v>0.7516835010895766</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.75877347676905504</c:v>
+                  <c:v>0.76314528292679851</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.76350933413888278</c:v>
+                  <c:v>0.77463656588320362</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.79216725731808857</c:v>
+                  <c:v>0.78473792018498556</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.79103347012357728</c:v>
+                  <c:v>0.78166684660540031</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.78692659085348415</c:v>
+                  <c:v>0.80607967957287818</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.80935659739178201</c:v>
+                  <c:v>0.78827715832406642</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.79836795511251202</c:v>
+                  <c:v>0.81959185512947175</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.80514463462046237</c:v>
+                  <c:v>0.83379568740596088</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.82584105348880099</c:v>
+                  <c:v>0.82962543398979516</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.85024670204648745</c:v>
+                  <c:v>0.85260564472302658</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.85657731993849062</c:v>
+                  <c:v>0.83111612105167265</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.83794288672082629</c:v>
+                  <c:v>0.85778892397231632</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.86423747156108721</c:v>
+                  <c:v>0.86936235461841826</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.86685099637397434</c:v>
+                  <c:v>0.86942725985817337</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.86592383031062037</c:v>
+                  <c:v>0.86616358248299974</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.88338209012477642</c:v>
+                  <c:v>0.87375177164852047</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.89324412218510296</c:v>
+                  <c:v>0.90071028184292368</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.89041744711733217</c:v>
+                  <c:v>0.88527980479258783</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.90459563364394269</c:v>
+                  <c:v>0.89547858626854571</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.90302806657936208</c:v>
+                  <c:v>0.90783227553915391</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.91895084350044132</c:v>
+                  <c:v>0.92246816754499106</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.93340791793340128</c:v>
+                  <c:v>0.93616718416344968</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.94901684638584982</c:v>
+                  <c:v>0.94189128793913457</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.94881907630701867</c:v>
+                  <c:v>0.95421094482537061</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.944506585267197</c:v>
+                  <c:v>0.94982430354835479</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.96114164537859881</c:v>
+                  <c:v>0.97952404265492865</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.98841911793624793</c:v>
+                  <c:v>0.98467558282047196</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.98121813896493559</c:v>
+                  <c:v>0.96939172305154464</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.99899135420497298</c:v>
+                  <c:v>1.001513755293288</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.0105138119093955</c:v>
+                  <c:v>0.98964862505856055</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.0176809628356254</c:v>
+                  <c:v>0.99552131544561617</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.9988797500479113</c:v>
+                  <c:v>1.0171825193797772</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.0214202503942897</c:v>
+                  <c:v>1.0064595469761128</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.0132350469640499</c:v>
+                  <c:v>1.0173195512257232</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.0270848214539263</c:v>
+                  <c:v>1.0266636167430794</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.037026755334135</c:v>
+                  <c:v>1.0332664927895863</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.0467289297993421</c:v>
+                  <c:v>1.0560112053801365</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.0757276001857132</c:v>
+                  <c:v>1.0551292615958132</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.0630322762111326</c:v>
+                  <c:v>1.0840529124224236</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.0789423914958662</c:v>
+                  <c:v>1.079925626434258</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.0777727773700325</c:v>
+                  <c:v>1.0790762399288756</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.1055802390606386</c:v>
+                  <c:v>1.1052269424972563</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.104264983344484</c:v>
+                  <c:v>1.1130292568508557</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.1151466790162199</c:v>
+                  <c:v>1.1040240298227593</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.1233410507108106</c:v>
+                  <c:v>1.1200513208772518</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.1081209178804401</c:v>
+                  <c:v>1.1196120120321498</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.1327518477325804</c:v>
+                  <c:v>1.1354319550753245</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.1351458273443729</c:v>
+                  <c:v>1.1550178277152152</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.1549076069924527</c:v>
+                  <c:v>1.1573887122462994</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.1478498504458932</c:v>
+                  <c:v>1.1556334531343879</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.1677365974977703</c:v>
+                  <c:v>1.1510974733364969</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.1870197590936855</c:v>
+                  <c:v>1.1793148328928589</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.1793682534646726</c:v>
+                  <c:v>1.1941244911105267</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.2023010477462419</c:v>
+                  <c:v>1.2028541717133463</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.2006757806238282</c:v>
+                  <c:v>1.1927982314016377</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.2166634006594892</c:v>
+                  <c:v>1.1923657977571869</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.2264737889795025</c:v>
+                  <c:v>1.2035525327083281</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.2199208341768408</c:v>
+                  <c:v>1.2096306149240481</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.2283796013207524</c:v>
+                  <c:v>1.2327193302019783</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.2317263188730465</c:v>
+                  <c:v>1.2446263613659176</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.2409126051411894</c:v>
+                  <c:v>1.2407396483132924</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.2429348514684615</c:v>
+                  <c:v>1.2609846722826601</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.2756421159376141</c:v>
+                  <c:v>1.2450772335961997</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.2619537853933649</c:v>
+                  <c:v>1.2650275315062578</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.2728866876194083</c:v>
+                  <c:v>1.2723713365589919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -805,11 +805,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="261276960"/>
-        <c:axId val="261277520"/>
+        <c:axId val="197030672"/>
+        <c:axId val="197031232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="261276960"/>
+        <c:axId val="197030672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,7 +852,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261277520"/>
+        <c:crossAx val="197031232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -860,7 +860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="261277520"/>
+        <c:axId val="197031232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +911,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261276960"/>
+        <c:crossAx val="197030672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1556,14 +1556,14 @@
   <autoFilter ref="C6:F101"/>
   <tableColumns count="4">
     <tableColumn id="1" name="列1"/>
-    <tableColumn id="2" name="列2" dataDxfId="1">
+    <tableColumn id="2" name="列2" dataDxfId="2">
       <calculatedColumnFormula>0.8*C7+0.5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="列3" dataDxfId="2">
+    <tableColumn id="3" name="列3" dataDxfId="1">
       <calculatedColumnFormula>表1[[#This Row],[列2]]+RAND()/30</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="列4" dataDxfId="0">
-      <calculatedColumnFormula>CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</calculatedColumnFormula>
+      <calculatedColumnFormula>CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1847,7 +1847,7 @@
     <row r="3" spans="3:8" x14ac:dyDescent="0.15">
       <c r="H3">
         <f ca="1">RAND()</f>
-        <v>0.14803177436995096</v>
+        <v>0.11499298806018687</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.15">
@@ -1874,11 +1874,11 @@
       </c>
       <c r="E7">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.52075510430285954</v>
+        <v>0.51660451620719816</v>
       </c>
       <c r="F7" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.01,0.52075510430286},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.01*10,0.516604516207198*10},</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.15">
@@ -1891,11 +1891,11 @@
       </c>
       <c r="E8">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.51679102418288858</v>
+        <v>0.52871779562636212</v>
       </c>
       <c r="F8" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.02,0.516791024182889},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.02*10,0.528717795626362*10},</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.15">
@@ -1908,11 +1908,11 @@
       </c>
       <c r="E9">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.54919619306426171</v>
+        <v>0.53580702588146911</v>
       </c>
       <c r="F9" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.03,0.549196193064262},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.03*10,0.535807025881469*10},</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.15">
@@ -1925,11 +1925,11 @@
       </c>
       <c r="E10">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.53611294459209147</v>
+        <v>0.55395317277594958</v>
       </c>
       <c r="F10" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.04,0.536112944592091},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.04*10,0.55395317277595*10},</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.15">
@@ -1942,11 +1942,11 @@
       </c>
       <c r="E11">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.56430939848811668</v>
+        <v>0.55292258901769409</v>
       </c>
       <c r="F11" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.05,0.564309398488117},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.05*10,0.552922589017694*10},</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.15">
@@ -1959,11 +1959,11 @@
       </c>
       <c r="E12">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.56028223964105117</v>
+        <v>0.55114513431975376</v>
       </c>
       <c r="F12" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.06,0.560282239641051},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.06*10,0.551145134319754*10},</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.15">
@@ -1976,11 +1976,11 @@
       </c>
       <c r="E13">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.56522263227210812</v>
+        <v>0.57734391097348037</v>
       </c>
       <c r="F13" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.07,0.565222632272108},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.07*10,0.57734391097348*10},</v>
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.15">
@@ -1993,11 +1993,11 @@
       </c>
       <c r="E14">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.5665930541935934</v>
+        <v>0.59449086811310603</v>
       </c>
       <c r="F14" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.08,0.566593054193593},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.08*10,0.594490868113106*10},</v>
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.15">
@@ -2010,11 +2010,11 @@
       </c>
       <c r="E15">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.59029606664660805</v>
+        <v>0.57283640087604071</v>
       </c>
       <c r="F15" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.09,0.590296066646608},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.09*10,0.572836400876041*10},</v>
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.15">
@@ -2027,11 +2027,11 @@
       </c>
       <c r="E16">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.58099346163333976</v>
+        <v>0.60758148806384571</v>
       </c>
       <c r="F16" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.1,0.58099346163334},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.1*10,0.607581488063846*10},</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.15">
@@ -2044,11 +2044,11 @@
       </c>
       <c r="E17">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.59914216951323318</v>
+        <v>0.61780966435574902</v>
       </c>
       <c r="F17" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.11,0.599142169513233},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.11*10,0.617809664355749*10},</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.15">
@@ -2061,11 +2061,11 @@
       </c>
       <c r="E18">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.610605142854317</v>
+        <v>0.62116082211407031</v>
       </c>
       <c r="F18" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.12,0.610605142854317},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.12*10,0.62116082211407*10},</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.15">
@@ -2078,11 +2078,11 @@
       </c>
       <c r="E19">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.61065138828306731</v>
+        <v>0.61995268435923934</v>
       </c>
       <c r="F19" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.13,0.610651388283067},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.13*10,0.619952684359239*10},</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.15">
@@ -2095,11 +2095,11 @@
       </c>
       <c r="E20">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.61741538849156086</v>
+        <v>0.6385054079324346</v>
       </c>
       <c r="F20" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.14,0.617415388491561},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.14*10,0.638505407932435*10},</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.15">
@@ -2112,11 +2112,11 @@
       </c>
       <c r="E21">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.62714881052128679</v>
+        <v>0.64071938153541486</v>
       </c>
       <c r="F21" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.15,0.627148810521287},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.15*10,0.640719381535415*10},</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.15">
@@ -2129,11 +2129,11 @@
       </c>
       <c r="E22">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.64676730055124421</v>
+        <v>0.64657938792767866</v>
       </c>
       <c r="F22" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.16,0.646767300551244},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.16*10,0.646579387927679*10},</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.15">
@@ -2146,11 +2146,11 @@
       </c>
       <c r="E23">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.64814976721446649</v>
+        <v>0.64277958671648505</v>
       </c>
       <c r="F23" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.17,0.648149767214466},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.17*10,0.642779586716485*10},</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.15">
@@ -2163,11 +2163,11 @@
       </c>
       <c r="E24">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.67393852127500009</v>
+        <v>0.67146595407755927</v>
       </c>
       <c r="F24" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.18,0.673938521275},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.18*10,0.671465954077559*10},</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.15">
@@ -2180,11 +2180,11 @@
       </c>
       <c r="E25">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.67790033933375804</v>
+        <v>0.66480085689326485</v>
       </c>
       <c r="F25" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.19,0.677900339333758},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.19*10,0.664800856893265*10},</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.15">
@@ -2197,11 +2197,11 @@
       </c>
       <c r="E26">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.67737531772483128</v>
+        <v>0.68804229833471331</v>
       </c>
       <c r="F26" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.2,0.677375317724831},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.2*10,0.688042298334713*10},</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.15">
@@ -2214,11 +2214,11 @@
       </c>
       <c r="E27">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.67053772544787538</v>
+        <v>0.69852753385062527</v>
       </c>
       <c r="F27" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.21,0.670537725447875},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.21*10,0.698527533850625*10},</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.15">
@@ -2231,11 +2231,11 @@
       </c>
       <c r="E28">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.68415145179293946</v>
+        <v>0.69259088736762464</v>
       </c>
       <c r="F28" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.22,0.684151451792939},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.22*10,0.692590887367625*10},</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.15">
@@ -2248,11 +2248,11 @@
       </c>
       <c r="E29">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.69112434526658284</v>
+        <v>0.71467754482767831</v>
       </c>
       <c r="F29" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.23,0.691124345266583},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.23*10,0.714677544827678*10},</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.15">
@@ -2265,11 +2265,11 @@
       </c>
       <c r="E30">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.69521867240137825</v>
+        <v>0.70368668661950207</v>
       </c>
       <c r="F30" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.24,0.695218672401378},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.24*10,0.703686686619502*10},</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.15">
@@ -2282,11 +2282,11 @@
       </c>
       <c r="E31">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.72549830963377537</v>
+        <v>0.71753354508037581</v>
       </c>
       <c r="F31" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.25,0.725498309633775},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.25*10,0.717533545080376*10},</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.15">
@@ -2299,11 +2299,11 @@
       </c>
       <c r="E32">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.73197212026614389</v>
+        <v>0.72176869135423871</v>
       </c>
       <c r="F32" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.26,0.731972120266144},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.26*10,0.721768691354239*10},</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.15">
@@ -2316,11 +2316,11 @@
       </c>
       <c r="E33">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.74225182241017984</v>
+        <v>0.72674071031549703</v>
       </c>
       <c r="F33" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.27,0.74225182241018},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.27*10,0.726740710315497*10},</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.15">
@@ -2333,11 +2333,11 @@
       </c>
       <c r="E34">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.74908473083955074</v>
+        <v>0.73823987113404044</v>
       </c>
       <c r="F34" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.28,0.749084730839551},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.28*10,0.73823987113404*10},</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.15">
@@ -2350,11 +2350,11 @@
       </c>
       <c r="E35">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.75084701543678323</v>
+        <v>0.73269510801956539</v>
       </c>
       <c r="F35" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.29,0.750847015436783},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.29*10,0.732695108019565*10},</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.15">
@@ -2367,11 +2367,11 @@
       </c>
       <c r="E36">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.74205745163762304</v>
+        <v>0.7516835010895766</v>
       </c>
       <c r="F36" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.3,0.742057451637623},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.3*10,0.751683501089577*10},</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.15">
@@ -2384,11 +2384,11 @@
       </c>
       <c r="E37">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.75877347676905504</v>
+        <v>0.76314528292679851</v>
       </c>
       <c r="F37" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.31,0.758773476769055},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.31*10,0.763145282926799*10},</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.15">
@@ -2401,11 +2401,11 @@
       </c>
       <c r="E38">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.76350933413888278</v>
+        <v>0.77463656588320362</v>
       </c>
       <c r="F38" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.32,0.763509334138883},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.32*10,0.774636565883204*10},</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.15">
@@ -2418,11 +2418,11 @@
       </c>
       <c r="E39">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.79216725731808857</v>
+        <v>0.78473792018498556</v>
       </c>
       <c r="F39" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.33,0.792167257318089},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.33*10,0.784737920184986*10},</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.15">
@@ -2435,11 +2435,11 @@
       </c>
       <c r="E40">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.79103347012357728</v>
+        <v>0.78166684660540031</v>
       </c>
       <c r="F40" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.34,0.791033470123577},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.34*10,0.7816668466054*10},</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.15">
@@ -2452,11 +2452,11 @@
       </c>
       <c r="E41">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.78692659085348415</v>
+        <v>0.80607967957287818</v>
       </c>
       <c r="F41" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.35,0.786926590853484},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.35*10,0.806079679572878*10},</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.15">
@@ -2469,11 +2469,11 @@
       </c>
       <c r="E42">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.80935659739178201</v>
+        <v>0.78827715832406642</v>
       </c>
       <c r="F42" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.36,0.809356597391782},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.36*10,0.788277158324066*10},</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.15">
@@ -2486,11 +2486,11 @@
       </c>
       <c r="E43">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.79836795511251202</v>
+        <v>0.81959185512947175</v>
       </c>
       <c r="F43" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.37,0.798367955112512},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.37*10,0.819591855129472*10},</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.15">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E44">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.80514463462046237</v>
+        <v>0.83379568740596088</v>
       </c>
       <c r="F44" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.38,0.805144634620462},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.38*10,0.833795687405961*10},</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.15">
@@ -2520,11 +2520,11 @@
       </c>
       <c r="E45">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.82584105348880099</v>
+        <v>0.82962543398979516</v>
       </c>
       <c r="F45" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.39,0.825841053488801},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.39*10,0.829625433989795*10},</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.15">
@@ -2537,11 +2537,11 @@
       </c>
       <c r="E46">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.85024670204648745</v>
+        <v>0.85260564472302658</v>
       </c>
       <c r="F46" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.4,0.850246702046487},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.4*10,0.852605644723027*10},</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.15">
@@ -2554,11 +2554,11 @@
       </c>
       <c r="E47">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.85657731993849062</v>
+        <v>0.83111612105167265</v>
       </c>
       <c r="F47" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.41,0.856577319938491},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.41*10,0.831116121051673*10},</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.15">
@@ -2571,11 +2571,11 @@
       </c>
       <c r="E48">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.83794288672082629</v>
+        <v>0.85778892397231632</v>
       </c>
       <c r="F48" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.42,0.837942886720826},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.42*10,0.857788923972316*10},</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.15">
@@ -2588,11 +2588,11 @@
       </c>
       <c r="E49">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.86423747156108721</v>
+        <v>0.86936235461841826</v>
       </c>
       <c r="F49" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.43,0.864237471561087},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.43*10,0.869362354618418*10},</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.15">
@@ -2605,11 +2605,11 @@
       </c>
       <c r="E50">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.86685099637397434</v>
+        <v>0.86942725985817337</v>
       </c>
       <c r="F50" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.44,0.866850996373974},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.44*10,0.869427259858173*10},</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.15">
@@ -2622,11 +2622,11 @@
       </c>
       <c r="E51">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.86592383031062037</v>
+        <v>0.86616358248299974</v>
       </c>
       <c r="F51" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.45,0.86592383031062},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.45*10,0.866163582483*10},</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.15">
@@ -2639,11 +2639,11 @@
       </c>
       <c r="E52">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.88338209012477642</v>
+        <v>0.87375177164852047</v>
       </c>
       <c r="F52" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.46,0.883382090124776},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.46*10,0.87375177164852*10},</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.15">
@@ -2656,11 +2656,11 @@
       </c>
       <c r="E53">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.89324412218510296</v>
+        <v>0.90071028184292368</v>
       </c>
       <c r="F53" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.47,0.893244122185103},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.47*10,0.900710281842924*10},</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.15">
@@ -2673,11 +2673,11 @@
       </c>
       <c r="E54">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.89041744711733217</v>
+        <v>0.88527980479258783</v>
       </c>
       <c r="F54" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.48,0.890417447117332},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.48*10,0.885279804792588*10},</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.15">
@@ -2690,11 +2690,11 @@
       </c>
       <c r="E55">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.90459563364394269</v>
+        <v>0.89547858626854571</v>
       </c>
       <c r="F55" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.49,0.904595633643943},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.49*10,0.895478586268546*10},</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.15">
@@ -2707,11 +2707,11 @@
       </c>
       <c r="E56">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.90302806657936208</v>
+        <v>0.90783227553915391</v>
       </c>
       <c r="F56" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.5,0.903028066579362},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.5*10,0.907832275539154*10},</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.15">
@@ -2724,11 +2724,11 @@
       </c>
       <c r="E57">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.91895084350044132</v>
+        <v>0.92246816754499106</v>
       </c>
       <c r="F57" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.51,0.918950843500441},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.51*10,0.922468167544991*10},</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.15">
@@ -2741,11 +2741,11 @@
       </c>
       <c r="E58">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.93340791793340128</v>
+        <v>0.93616718416344968</v>
       </c>
       <c r="F58" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.52,0.933407917933401},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.52*10,0.93616718416345*10},</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.15">
@@ -2758,11 +2758,11 @@
       </c>
       <c r="E59">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.94901684638584982</v>
+        <v>0.94189128793913457</v>
       </c>
       <c r="F59" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.53,0.94901684638585},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.53*10,0.941891287939135*10},</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.15">
@@ -2775,11 +2775,11 @@
       </c>
       <c r="E60">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.94881907630701867</v>
+        <v>0.95421094482537061</v>
       </c>
       <c r="F60" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.54,0.948819076307019},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.54*10,0.954210944825371*10},</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.15">
@@ -2792,11 +2792,11 @@
       </c>
       <c r="E61">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.944506585267197</v>
+        <v>0.94982430354835479</v>
       </c>
       <c r="F61" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.55,0.944506585267197},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.55*10,0.949824303548355*10},</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.15">
@@ -2809,11 +2809,11 @@
       </c>
       <c r="E62">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.96114164537859881</v>
+        <v>0.97952404265492865</v>
       </c>
       <c r="F62" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.56,0.961141645378599},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.56*10,0.979524042654929*10},</v>
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.15">
@@ -2826,11 +2826,11 @@
       </c>
       <c r="E63">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.98841911793624793</v>
+        <v>0.98467558282047196</v>
       </c>
       <c r="F63" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.57,0.988419117936248},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.57*10,0.984675582820472*10},</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.15">
@@ -2843,11 +2843,11 @@
       </c>
       <c r="E64">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.98121813896493559</v>
+        <v>0.96939172305154464</v>
       </c>
       <c r="F64" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.58,0.981218138964936},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.58*10,0.969391723051545*10},</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.15">
@@ -2860,11 +2860,11 @@
       </c>
       <c r="E65">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.99899135420497298</v>
+        <v>1.001513755293288</v>
       </c>
       <c r="F65" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.59,0.998991354204973},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.59*10,1.00151375529329*10},</v>
       </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.15">
@@ -2877,11 +2877,11 @@
       </c>
       <c r="E66">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.0105138119093955</v>
+        <v>0.98964862505856055</v>
       </c>
       <c r="F66" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.6,1.0105138119094},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.6*10,0.989648625058561*10},</v>
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.15">
@@ -2894,11 +2894,11 @@
       </c>
       <c r="E67">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.0176809628356254</v>
+        <v>0.99552131544561617</v>
       </c>
       <c r="F67" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.61,1.01768096283563},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.61*10,0.995521315445616*10},</v>
       </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.15">
@@ -2911,11 +2911,11 @@
       </c>
       <c r="E68">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>0.9988797500479113</v>
+        <v>1.0171825193797772</v>
       </c>
       <c r="F68" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.62,0.998879750047911},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.62*10,1.01718251937978*10},</v>
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.15">
@@ -2928,11 +2928,11 @@
       </c>
       <c r="E69">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.0214202503942897</v>
+        <v>1.0064595469761128</v>
       </c>
       <c r="F69" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.63,1.02142025039429},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.63*10,1.00645954697611*10},</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.15">
@@ -2945,11 +2945,11 @@
       </c>
       <c r="E70">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.0132350469640499</v>
+        <v>1.0173195512257232</v>
       </c>
       <c r="F70" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.64,1.01323504696405},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.64*10,1.01731955122572*10},</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.15">
@@ -2957,16 +2957,16 @@
         <v>0.65</v>
       </c>
       <c r="D71">
-        <f t="shared" ref="D71:D102" si="2">0.8*C71+0.5</f>
+        <f t="shared" ref="D71:D101" si="2">0.8*C71+0.5</f>
         <v>1.02</v>
       </c>
       <c r="E71">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.0270848214539263</v>
+        <v>1.0266636167430794</v>
       </c>
       <c r="F71" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.65,1.02708482145393},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.65*10,1.02666361674308*10},</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.15">
@@ -2979,11 +2979,11 @@
       </c>
       <c r="E72">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.037026755334135</v>
+        <v>1.0332664927895863</v>
       </c>
       <c r="F72" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.66,1.03702675533414},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.66*10,1.03326649278959*10},</v>
       </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.15">
@@ -2996,11 +2996,11 @@
       </c>
       <c r="E73">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.0467289297993421</v>
+        <v>1.0560112053801365</v>
       </c>
       <c r="F73" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.67,1.04672892979934},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.67*10,1.05601120538014*10},</v>
       </c>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.15">
@@ -3013,11 +3013,11 @@
       </c>
       <c r="E74">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.0757276001857132</v>
+        <v>1.0551292615958132</v>
       </c>
       <c r="F74" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.68,1.07572760018571},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.68*10,1.05512926159581*10},</v>
       </c>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.15">
@@ -3030,11 +3030,11 @@
       </c>
       <c r="E75">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.0630322762111326</v>
+        <v>1.0840529124224236</v>
       </c>
       <c r="F75" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.69,1.06303227621113},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.69*10,1.08405291242242*10},</v>
       </c>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.15">
@@ -3047,11 +3047,11 @@
       </c>
       <c r="E76">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.0789423914958662</v>
+        <v>1.079925626434258</v>
       </c>
       <c r="F76" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.7,1.07894239149587},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.7*10,1.07992562643426*10},</v>
       </c>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.15">
@@ -3064,11 +3064,11 @@
       </c>
       <c r="E77">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.0777727773700325</v>
+        <v>1.0790762399288756</v>
       </c>
       <c r="F77" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.71,1.07777277737003},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.71*10,1.07907623992888*10},</v>
       </c>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.15">
@@ -3081,11 +3081,11 @@
       </c>
       <c r="E78">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.1055802390606386</v>
+        <v>1.1052269424972563</v>
       </c>
       <c r="F78" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.72,1.10558023906064},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.72*10,1.10522694249726*10},</v>
       </c>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.15">
@@ -3098,11 +3098,11 @@
       </c>
       <c r="E79">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.104264983344484</v>
+        <v>1.1130292568508557</v>
       </c>
       <c r="F79" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.73,1.10426498334448},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.73*10,1.11302925685086*10},</v>
       </c>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.15">
@@ -3115,11 +3115,11 @@
       </c>
       <c r="E80">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.1151466790162199</v>
+        <v>1.1040240298227593</v>
       </c>
       <c r="F80" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.74,1.11514667901622},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.74*10,1.10402402982276*10},</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.15">
@@ -3132,11 +3132,11 @@
       </c>
       <c r="E81">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.1233410507108106</v>
+        <v>1.1200513208772518</v>
       </c>
       <c r="F81" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.75,1.12334105071081},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.75*10,1.12005132087725*10},</v>
       </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.15">
@@ -3149,11 +3149,11 @@
       </c>
       <c r="E82">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.1081209178804401</v>
+        <v>1.1196120120321498</v>
       </c>
       <c r="F82" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.76,1.10812091788044},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.76*10,1.11961201203215*10},</v>
       </c>
     </row>
     <row r="83" spans="3:6" x14ac:dyDescent="0.15">
@@ -3166,11 +3166,11 @@
       </c>
       <c r="E83">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.1327518477325804</v>
+        <v>1.1354319550753245</v>
       </c>
       <c r="F83" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.77,1.13275184773258},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.77*10,1.13543195507532*10},</v>
       </c>
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.15">
@@ -3183,11 +3183,11 @@
       </c>
       <c r="E84">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.1351458273443729</v>
+        <v>1.1550178277152152</v>
       </c>
       <c r="F84" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.78,1.13514582734437},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.78*10,1.15501782771522*10},</v>
       </c>
     </row>
     <row r="85" spans="3:6" x14ac:dyDescent="0.15">
@@ -3200,11 +3200,11 @@
       </c>
       <c r="E85">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.1549076069924527</v>
+        <v>1.1573887122462994</v>
       </c>
       <c r="F85" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.79,1.15490760699245},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.79*10,1.1573887122463*10},</v>
       </c>
     </row>
     <row r="86" spans="3:6" x14ac:dyDescent="0.15">
@@ -3217,11 +3217,11 @@
       </c>
       <c r="E86">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.1478498504458932</v>
+        <v>1.1556334531343879</v>
       </c>
       <c r="F86" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.8,1.14784985044589},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.8*10,1.15563345313439*10},</v>
       </c>
     </row>
     <row r="87" spans="3:6" x14ac:dyDescent="0.15">
@@ -3234,11 +3234,11 @@
       </c>
       <c r="E87">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.1677365974977703</v>
+        <v>1.1510974733364969</v>
       </c>
       <c r="F87" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.81,1.16773659749777},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.81*10,1.1510974733365*10},</v>
       </c>
     </row>
     <row r="88" spans="3:6" x14ac:dyDescent="0.15">
@@ -3251,11 +3251,11 @@
       </c>
       <c r="E88">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.1870197590936855</v>
+        <v>1.1793148328928589</v>
       </c>
       <c r="F88" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.82,1.18701975909369},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.82*10,1.17931483289286*10},</v>
       </c>
     </row>
     <row r="89" spans="3:6" x14ac:dyDescent="0.15">
@@ -3268,11 +3268,11 @@
       </c>
       <c r="E89">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.1793682534646726</v>
+        <v>1.1941244911105267</v>
       </c>
       <c r="F89" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.83,1.17936825346467},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.83*10,1.19412449111053*10},</v>
       </c>
     </row>
     <row r="90" spans="3:6" x14ac:dyDescent="0.15">
@@ -3285,11 +3285,11 @@
       </c>
       <c r="E90">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.2023010477462419</v>
+        <v>1.2028541717133463</v>
       </c>
       <c r="F90" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.84,1.20230104774624},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.84*10,1.20285417171335*10},</v>
       </c>
     </row>
     <row r="91" spans="3:6" x14ac:dyDescent="0.15">
@@ -3302,11 +3302,11 @@
       </c>
       <c r="E91">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.2006757806238282</v>
+        <v>1.1927982314016377</v>
       </c>
       <c r="F91" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.85,1.20067578062383},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.85*10,1.19279823140164*10},</v>
       </c>
     </row>
     <row r="92" spans="3:6" x14ac:dyDescent="0.15">
@@ -3319,11 +3319,11 @@
       </c>
       <c r="E92">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.2166634006594892</v>
+        <v>1.1923657977571869</v>
       </c>
       <c r="F92" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.86,1.21666340065949},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.86*10,1.19236579775719*10},</v>
       </c>
     </row>
     <row r="93" spans="3:6" x14ac:dyDescent="0.15">
@@ -3336,11 +3336,11 @@
       </c>
       <c r="E93">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.2264737889795025</v>
+        <v>1.2035525327083281</v>
       </c>
       <c r="F93" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.87,1.2264737889795},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.87*10,1.20355253270833*10},</v>
       </c>
     </row>
     <row r="94" spans="3:6" x14ac:dyDescent="0.15">
@@ -3353,11 +3353,11 @@
       </c>
       <c r="E94">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.2199208341768408</v>
+        <v>1.2096306149240481</v>
       </c>
       <c r="F94" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.88,1.21992083417684},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.88*10,1.20963061492405*10},</v>
       </c>
     </row>
     <row r="95" spans="3:6" x14ac:dyDescent="0.15">
@@ -3370,11 +3370,11 @@
       </c>
       <c r="E95">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.2283796013207524</v>
+        <v>1.2327193302019783</v>
       </c>
       <c r="F95" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.89,1.22837960132075},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.89*10,1.23271933020198*10},</v>
       </c>
     </row>
     <row r="96" spans="3:6" x14ac:dyDescent="0.15">
@@ -3387,11 +3387,11 @@
       </c>
       <c r="E96">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.2317263188730465</v>
+        <v>1.2446263613659176</v>
       </c>
       <c r="F96" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.9,1.23172631887305},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.9*10,1.24462636136592*10},</v>
       </c>
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.15">
@@ -3404,11 +3404,11 @@
       </c>
       <c r="E97">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.2409126051411894</v>
+        <v>1.2407396483132924</v>
       </c>
       <c r="F97" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.91,1.24091260514119},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.91*10,1.24073964831329*10},</v>
       </c>
     </row>
     <row r="98" spans="3:6" x14ac:dyDescent="0.15">
@@ -3421,11 +3421,11 @@
       </c>
       <c r="E98">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.2429348514684615</v>
+        <v>1.2609846722826601</v>
       </c>
       <c r="F98" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.92,1.24293485146846},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.92*10,1.26098467228266*10},</v>
       </c>
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.15">
@@ -3438,11 +3438,11 @@
       </c>
       <c r="E99">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.2756421159376141</v>
+        <v>1.2450772335961997</v>
       </c>
       <c r="F99" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.93,1.27564211593761},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.93*10,1.2450772335962*10},</v>
       </c>
     </row>
     <row r="100" spans="3:6" x14ac:dyDescent="0.15">
@@ -3455,11 +3455,11 @@
       </c>
       <c r="E100">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.2619537853933649</v>
+        <v>1.2650275315062578</v>
       </c>
       <c r="F100" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.94,1.26195378539336},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.94*10,1.26502753150626*10},</v>
       </c>
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.15">
@@ -3472,11 +3472,11 @@
       </c>
       <c r="E101">
         <f ca="1">表1[[#This Row],[列2]]+RAND()/30</f>
-        <v>1.2728866876194083</v>
+        <v>1.2723713365589919</v>
       </c>
       <c r="F101" t="str">
-        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],",",表1[[#This Row],[列3]],"},")</f>
-        <v>{0.95,1.27288668761941},</v>
+        <f ca="1">CONCATENATE("{",表1[[#This Row],[列1]],"*10,",表1[[#This Row],[列3]],"*10},")</f>
+        <v>{0.95*10,1.27237133655899*10},</v>
       </c>
     </row>
   </sheetData>
